--- a/consumos/dataset_consumo_YH-00052916.xlsx
+++ b/consumos/dataset_consumo_YH-00052916.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTM40\Desktop\Alfonso Almenara\__Proyectos__\SIAPEMAD\Plataforma SIAPEMAD\Siapemad_Dashboard\consumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87E5295-1E71-4A14-A989-CB7D64F97E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8A50E-C8BA-412D-87EB-0EB5858D85F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,14 +421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
     <col min="3" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="10" max="10" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,7 +466,7 @@
       <c r="E2">
         <v>17.100000000000001</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>17.100000000000001</v>
       </c>
       <c r="K2" s="3"/>
@@ -480,7 +481,7 @@
       <c r="G3">
         <v>17.100000000000001</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>17.100000000000001</v>
       </c>
       <c r="K3" s="3"/>
@@ -495,7 +496,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -509,7 +510,7 @@
       <c r="F5">
         <v>12.2</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <v>12.2</v>
       </c>
     </row>
@@ -523,7 +524,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -537,7 +538,7 @@
       <c r="F7">
         <v>12.3</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>12.3</v>
       </c>
     </row>
@@ -551,7 +552,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -565,7 +566,7 @@
       <c r="E9">
         <v>56.7</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>56.7</v>
       </c>
     </row>
@@ -579,7 +580,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -593,7 +594,7 @@
       <c r="G11">
         <v>13.1</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <v>13.1</v>
       </c>
     </row>
@@ -607,7 +608,7 @@
       <c r="G12">
         <v>18.3</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>18.3</v>
       </c>
     </row>
@@ -621,7 +622,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -635,7 +636,7 @@
       <c r="G14">
         <v>18.399999999999999</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -649,7 +650,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="K15" s="3"/>
@@ -664,11 +665,11 @@
       <c r="G16">
         <v>18.5</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <v>18.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -678,11 +679,11 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -692,11 +693,11 @@
       <c r="F18">
         <v>12.2</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>12.2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -706,11 +707,11 @@
       <c r="F19">
         <v>12.1</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <v>12.1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -720,11 +721,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -734,11 +735,11 @@
       <c r="G21">
         <v>18.5</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <v>18.5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -748,11 +749,11 @@
       <c r="F22">
         <v>9.1</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -762,11 +763,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -776,11 +777,11 @@
       <c r="F24">
         <v>12.3</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <v>12.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -790,11 +791,11 @@
       <c r="G25">
         <v>18.399999999999999</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -804,11 +805,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -818,11 +819,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -832,11 +833,11 @@
       <c r="G28">
         <v>18.5</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <v>18.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -846,11 +847,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -860,11 +861,11 @@
       <c r="G30">
         <v>18.399999999999999</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -874,11 +875,11 @@
       <c r="E31">
         <v>17.7</v>
       </c>
-      <c r="I31">
+      <c r="H31">
         <v>17.7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -888,11 +889,11 @@
       <c r="G32">
         <v>17.7</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <v>17.7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -902,11 +903,11 @@
       <c r="F33">
         <v>3.7</v>
       </c>
-      <c r="I33">
+      <c r="H33">
         <v>3.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -916,11 +917,11 @@
       <c r="E34">
         <v>17.399999999999999</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -930,11 +931,11 @@
       <c r="G35">
         <v>17.399999999999999</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -944,11 +945,11 @@
       <c r="F36">
         <v>12.3</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <v>12.3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -958,11 +959,11 @@
       <c r="F37">
         <v>12.4</v>
       </c>
-      <c r="I37">
+      <c r="H37">
         <v>12.4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -972,11 +973,11 @@
       <c r="E38">
         <v>17.2</v>
       </c>
-      <c r="I38">
+      <c r="H38">
         <v>17.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -986,11 +987,11 @@
       <c r="G39">
         <v>17.2</v>
       </c>
-      <c r="I39">
+      <c r="H39">
         <v>17.2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1000,11 +1001,11 @@
       <c r="F40">
         <v>12.5</v>
       </c>
-      <c r="I40">
+      <c r="H40">
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1014,11 +1015,11 @@
       <c r="E41">
         <v>17.100000000000001</v>
       </c>
-      <c r="I41">
+      <c r="H41">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1028,11 +1029,11 @@
       <c r="G42">
         <v>17.100000000000001</v>
       </c>
-      <c r="I42">
+      <c r="H42">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1042,11 +1043,11 @@
       <c r="F43">
         <v>12.4</v>
       </c>
-      <c r="I43">
+      <c r="H43">
         <v>12.4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1056,11 +1057,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1070,11 +1071,11 @@
       <c r="G45">
         <v>17.7</v>
       </c>
-      <c r="I45">
+      <c r="H45">
         <v>17.7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1084,11 +1085,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1098,11 +1099,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1112,11 +1113,11 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1126,11 +1127,11 @@
       <c r="F49">
         <v>12</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1140,11 +1141,11 @@
       <c r="F50">
         <v>12.2</v>
       </c>
-      <c r="I50">
+      <c r="H50">
         <v>12.2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1154,11 +1155,11 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1168,11 +1169,11 @@
       <c r="G52">
         <v>18.3</v>
       </c>
-      <c r="I52">
+      <c r="H52">
         <v>18.3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1182,11 +1183,11 @@
       <c r="E53">
         <v>17.7</v>
       </c>
-      <c r="I53">
+      <c r="H53">
         <v>17.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1196,11 +1197,11 @@
       <c r="G54">
         <v>17.7</v>
       </c>
-      <c r="I54">
+      <c r="H54">
         <v>17.7</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1210,11 +1211,11 @@
       <c r="E55">
         <v>17.3</v>
       </c>
-      <c r="I55">
+      <c r="H55">
         <v>17.3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1224,11 +1225,11 @@
       <c r="G56">
         <v>17.3</v>
       </c>
-      <c r="I56">
+      <c r="H56">
         <v>17.3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1238,11 +1239,11 @@
       <c r="E57">
         <v>17.2</v>
       </c>
-      <c r="I57">
+      <c r="H57">
         <v>17.2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1252,11 +1253,11 @@
       <c r="G58">
         <v>17.2</v>
       </c>
-      <c r="I58">
+      <c r="H58">
         <v>17.2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1266,11 +1267,11 @@
       <c r="G59">
         <v>17.100000000000001</v>
       </c>
-      <c r="I59">
+      <c r="H59">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1280,11 +1281,11 @@
       <c r="E60">
         <v>17.100000000000001</v>
       </c>
-      <c r="I60">
+      <c r="H60">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1294,11 +1295,11 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1308,11 +1309,11 @@
       <c r="G62">
         <v>17.8</v>
       </c>
-      <c r="I62">
+      <c r="H62">
         <v>17.8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1322,11 +1323,11 @@
       <c r="E63">
         <v>17.399999999999999</v>
       </c>
-      <c r="I63">
+      <c r="H63">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1336,11 +1337,11 @@
       <c r="G64">
         <v>17.399999999999999</v>
       </c>
-      <c r="I64">
+      <c r="H64">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1350,11 +1351,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1364,11 +1365,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1378,11 +1379,11 @@
       <c r="G67">
         <v>18.600000000000001</v>
       </c>
-      <c r="I67">
+      <c r="H67">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1392,11 +1393,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1406,11 +1407,11 @@
       <c r="G69">
         <v>18.399999999999999</v>
       </c>
-      <c r="I69">
+      <c r="H69">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1420,11 +1421,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1434,11 +1435,11 @@
       <c r="E71">
         <v>56.7</v>
       </c>
-      <c r="I71">
+      <c r="H71">
         <v>56.7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1448,11 +1449,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1462,11 +1463,11 @@
       <c r="F73">
         <v>12.3</v>
       </c>
-      <c r="I73">
+      <c r="H73">
         <v>12.3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1476,11 +1477,11 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1490,11 +1491,11 @@
       <c r="F75">
         <v>12.1</v>
       </c>
-      <c r="I75">
+      <c r="H75">
         <v>12.1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1504,11 +1505,11 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1518,11 +1519,11 @@
       <c r="F77">
         <v>12.1</v>
       </c>
-      <c r="I77">
+      <c r="H77">
         <v>12.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1532,11 +1533,11 @@
       <c r="F78">
         <v>12.2</v>
       </c>
-      <c r="I78">
+      <c r="H78">
         <v>12.2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1546,11 +1547,11 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1560,11 +1561,11 @@
       <c r="F80">
         <v>12.2</v>
       </c>
-      <c r="I80">
+      <c r="H80">
         <v>12.2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1574,11 +1575,11 @@
       <c r="F81">
         <v>12.4</v>
       </c>
-      <c r="I81">
+      <c r="H81">
         <v>12.4</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1588,11 +1589,11 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1602,11 +1603,11 @@
       <c r="F83">
         <v>12.2</v>
       </c>
-      <c r="I83">
+      <c r="H83">
         <v>12.2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
